--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OZON2\Фотошоп\Версия 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_prog\Python\PhotoFill\test02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232B2920-A692-4FE4-942E-0BC7F241D9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C121D5-F2DF-4B55-9B0E-7BE63AE57E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16350" yWindow="2955" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Названия файлов</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Материал</t>
   </si>
   <si>
-    <t>Оцинкованная сталь</t>
-  </si>
-  <si>
     <t>10 шт</t>
   </si>
   <si>
@@ -195,13 +192,25 @@
   </si>
   <si>
     <t>Размер</t>
+  </si>
+  <si>
+    <t>#252848</t>
+  </si>
+  <si>
+    <t>#833DCF / #a000d4</t>
+  </si>
+  <si>
+    <t>#a000d4</t>
+  </si>
+  <si>
+    <t>Оцинк. сталь</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,24 +235,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF111111"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,34 +276,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -606,341 +589,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2126998A-143D-4CC8-9DA9-16048D09E0A4}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7">
-        <v>933</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="5">
+        <v>933</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <v>933</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>933</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>933</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7">
-        <v>933</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
+        <v>933</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <v>933</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
+        <v>933</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="7">
-        <v>933</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5">
+        <v>933</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5">
+        <v>933</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5">
+        <v>933</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7">
-        <v>933</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5">
+        <v>933</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5">
+        <v>933</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5">
+        <v>933</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="7">
-        <v>933</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5">
+        <v>933</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5">
+        <v>933</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5">
+        <v>933</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7">
-        <v>933</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7">
-        <v>933</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
+        <v>933</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7">
-        <v>933</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="E18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5">
+        <v>933</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="7">
-        <v>933</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="7">
-        <v>933</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7">
-        <v>933</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="7">
-        <v>933</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="7">
-        <v>933</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7">
-        <v>933</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="7">
-        <v>933</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="7">
-        <v>933</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="7">
-        <v>933</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="7">
-        <v>933</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>48</v>
+      <c r="E19" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +936,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,9 +966,9 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7">
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1001,7 +982,7 @@
       <c r="B3" s="1">
         <v>660</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>660</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1013,9 +994,9 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,7 +1006,7 @@
       <c r="B5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,7 +1016,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1"/>
@@ -1045,9 +1026,9 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7">
         <v>40</v>
       </c>
       <c r="D7" s="1"/>
@@ -1059,7 +1040,9 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1068,10 +1051,12 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1083,7 +1068,7 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
